--- a/Output/OSC/SBA/SBA_Assistance.xlsx
+++ b/Output/OSC/SBA/SBA_Assistance.xlsx
@@ -158,8 +158,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
     <numFmt numFmtId="167" formatCode="0.00,,,&quot;B&quot;"/>
-    <numFmt numFmtId="172" formatCode="0.00,,,&quot;B&quot;"/>
-    <numFmt numFmtId="173" formatCode="0.00,,,&quot;B&quot;"/>
+    <numFmt numFmtId="176" formatCode="0.00,,,&quot;B&quot;"/>
+    <numFmt numFmtId="177" formatCode="0.00,,,&quot;B&quot;"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -198,8 +198,8 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="167" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf numFmtId="172" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf numFmtId="173" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>

--- a/Output/OSC/SBA/SBA_Assistance.xlsx
+++ b/Output/OSC/SBA/SBA_Assistance.xlsx
@@ -158,8 +158,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
     <numFmt numFmtId="167" formatCode="0.00,,,&quot;B&quot;"/>
-    <numFmt numFmtId="176" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="177" formatCode="0.00,,,&quot;B&quot;"/>
+    <numFmt numFmtId="178" formatCode="0.00,,,&quot;B&quot;"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -198,8 +198,8 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="167" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="177" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="178" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>

--- a/Output/OSC/SBA/SBA_Assistance.xlsx
+++ b/Output/OSC/SBA/SBA_Assistance.xlsx
@@ -7,12 +7,14 @@
   </bookViews>
   <sheets>
     <sheet name="Crit" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Status" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Type" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="87">
   <si>
     <t xml:space="preserve">program</t>
   </si>
@@ -150,16 +152,141 @@
   </si>
   <si>
     <t xml:space="preserve">Space</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Active</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CANCLD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CHGOFF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">COMMIT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cancelled</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Closed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EXEMPT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NOT FUNDED</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PIF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reinstate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">504 Refinance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Community Advantage Initiative</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Community Express</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Contract Guaranty</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Defense Loans and Technical Assistance, Funded 9/26/95</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Domestic Revolving Line of Credit - Current Assets</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Domestic Revolving Line of Credit - Fixed Assets</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EXPORT IMPORT HARMONIZATION</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FA$TRK (Small Loan Express)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FINAL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Greenline - Revolving L. of Cred. - Current Assets</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Greenline - Revolving L. of Cred. - Fixed Assets</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Guaranty</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gulf Opportunity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">International Trade - Sec, 7(a) (16)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lender Advantage Initiative</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Patriot Express</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Revolving Line of Credit Exports - Sec. 7(a) (14)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rural Lender Advantage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Seasonal Line of Credit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sec. 504 - Delta loans, funded 9/26/95</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sec. 504 - Loan Guarantees - Private Sector Financed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sec. 504 - Premier Certified Lender Program</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Small Asset Based</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Small General Contractors - Sec. 7(a) (9)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Special Markets Program</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Standard Asset Based</t>
+  </si>
+  <si>
+    <t xml:space="preserve">USCAIP Guaranty (NAFTA)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Y2K Loan</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
+  <numFmts count="5">
     <numFmt numFmtId="167" formatCode="0.00,,,&quot;B&quot;"/>
-    <numFmt numFmtId="177" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="178" formatCode="0.00,,,&quot;B&quot;"/>
+    <numFmt numFmtId="180" formatCode="0.00,,,&quot;B&quot;"/>
+    <numFmt numFmtId="182" formatCode="0.00,,,&quot;B&quot;"/>
+    <numFmt numFmtId="183" formatCode="0.00,,,&quot;B&quot;"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -195,11 +322,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="167" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="178" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="180" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="182" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="183" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -610,34 +739,34 @@
       <c r="M2" t="s">
         <v>34</v>
       </c>
-      <c r="N2" s="3" t="n">
+      <c r="N2" s="2" t="n">
         <v>295380000</v>
       </c>
-      <c r="O2" s="3" t="n">
+      <c r="O2" s="2" t="n">
         <v>1294134320</v>
       </c>
-      <c r="P2" s="3" t="n">
+      <c r="P2" s="2" t="n">
         <v>102213000</v>
       </c>
-      <c r="Q2" s="3" t="n">
+      <c r="Q2" s="2" t="n">
         <v>413695336</v>
       </c>
-      <c r="R2" s="3" t="n">
+      <c r="R2" s="2" t="n">
         <v>403306000</v>
       </c>
-      <c r="S2" s="3" t="n">
+      <c r="S2" s="2" t="n">
         <v>41536000</v>
       </c>
-      <c r="T2" s="3" t="n">
+      <c r="T2" s="2" t="n">
         <v>37470250</v>
       </c>
-      <c r="U2" s="3" t="n">
+      <c r="U2" s="2" t="n">
         <v>6795000</v>
       </c>
-      <c r="V2" s="3" t="n">
+      <c r="V2" s="2" t="n">
         <v>1998050148</v>
       </c>
-      <c r="W2" s="3" t="n">
+      <c r="W2" s="2" t="n">
         <v>1818889899</v>
       </c>
       <c r="X2" s="1" t="n">
@@ -719,34 +848,34 @@
       <c r="M3" t="s">
         <v>35</v>
       </c>
-      <c r="N3" s="3" t="n">
+      <c r="N3" s="2" t="n">
         <v>589430837</v>
       </c>
-      <c r="O3" s="3" t="n">
+      <c r="O3" s="2" t="n">
         <v>6048167015.59</v>
       </c>
-      <c r="P3" s="3" t="n">
+      <c r="P3" s="2" t="n">
         <v>524904921</v>
       </c>
-      <c r="Q3" s="3" t="n">
+      <c r="Q3" s="2" t="n">
         <v>1694419120</v>
       </c>
-      <c r="R3" s="3" t="n">
+      <c r="R3" s="2" t="n">
         <v>888192199.99</v>
       </c>
-      <c r="S3" s="3" t="n">
+      <c r="S3" s="2" t="n">
         <v>117458160</v>
       </c>
-      <c r="T3" s="3" t="n">
+      <c r="T3" s="2" t="n">
         <v>82018219</v>
       </c>
-      <c r="U3" s="3" t="n">
+      <c r="U3" s="2" t="n">
         <v>44667300</v>
       </c>
-      <c r="V3" s="3" t="n">
+      <c r="V3" s="2" t="n">
         <v>10146109913.11</v>
       </c>
-      <c r="W3" s="3" t="n">
+      <c r="W3" s="2" t="n">
         <v>10523436538</v>
       </c>
       <c r="X3" s="1" t="n">
@@ -828,26 +957,26 @@
       <c r="M4" t="s">
         <v>36</v>
       </c>
-      <c r="N4" s="3" t="n">
+      <c r="N4" s="2" t="n">
         <v>1052534.18</v>
       </c>
-      <c r="O4" s="3" t="n">
+      <c r="O4" s="2" t="n">
         <v>41881794.23</v>
       </c>
-      <c r="P4" s="3" t="n">
+      <c r="P4" s="2" t="n">
         <v>5680831.92</v>
       </c>
-      <c r="Q4" s="3" t="n">
+      <c r="Q4" s="2" t="n">
         <v>7105471</v>
       </c>
-      <c r="R4" s="3"/>
-      <c r="S4" s="3" t="n">
+      <c r="R4" s="2"/>
+      <c r="S4" s="2" t="n">
         <v>32282073.69</v>
       </c>
-      <c r="T4" s="3"/>
-      <c r="U4" s="3"/>
-      <c r="V4" s="3"/>
-      <c r="W4" s="3"/>
+      <c r="T4" s="2"/>
+      <c r="U4" s="2"/>
+      <c r="V4" s="2"/>
+      <c r="W4" s="2"/>
       <c r="X4" s="1"/>
       <c r="Y4" s="1"/>
       <c r="Z4" s="1"/>
@@ -901,34 +1030,34 @@
       <c r="M5" t="s">
         <v>37</v>
       </c>
-      <c r="N5" s="3" t="str">
+      <c r="N5" s="2" t="str">
         <f>Sum(N2:N4)</f>
       </c>
-      <c r="O5" s="3" t="str">
+      <c r="O5" s="2" t="str">
         <f>Sum(O2:O4)</f>
       </c>
-      <c r="P5" s="3" t="str">
+      <c r="P5" s="2" t="str">
         <f>Sum(P2:P4)</f>
       </c>
-      <c r="Q5" s="3" t="str">
+      <c r="Q5" s="2" t="str">
         <f>Sum(Q2:Q4)</f>
       </c>
-      <c r="R5" s="3" t="str">
+      <c r="R5" s="2" t="str">
         <f>Sum(R2:R4)</f>
       </c>
-      <c r="S5" s="3" t="str">
+      <c r="S5" s="2" t="str">
         <f>Sum(S2:S4)</f>
       </c>
-      <c r="T5" s="3" t="str">
+      <c r="T5" s="2" t="str">
         <f>Sum(T2:T4)</f>
       </c>
-      <c r="U5" s="3" t="str">
+      <c r="U5" s="2" t="str">
         <f>Sum(U2:U4)</f>
       </c>
-      <c r="V5" s="3" t="str">
+      <c r="V5" s="2" t="str">
         <f>Sum(V2:V4)</f>
       </c>
-      <c r="W5" s="3" t="str">
+      <c r="W5" s="2" t="str">
         <f>Sum(W2:W4)</f>
       </c>
       <c r="X5" s="1" t="str">
@@ -1117,34 +1246,34 @@
       <c r="M9" t="s">
         <v>34</v>
       </c>
-      <c r="N9" s="3" t="n">
+      <c r="N9" s="2" t="n">
         <v>377141200.076445</v>
       </c>
-      <c r="O9" s="3" t="n">
+      <c r="O9" s="2" t="n">
         <v>1659975648.852</v>
       </c>
-      <c r="P9" s="3" t="n">
+      <c r="P9" s="2" t="n">
         <v>135762079.084166</v>
       </c>
-      <c r="Q9" s="3" t="n">
+      <c r="Q9" s="2" t="n">
         <v>545652068.996159</v>
       </c>
-      <c r="R9" s="3" t="n">
+      <c r="R9" s="2" t="n">
         <v>542570385.056694</v>
       </c>
-      <c r="S9" s="3" t="n">
+      <c r="S9" s="2" t="n">
         <v>47986263.8065028</v>
       </c>
-      <c r="T9" s="3" t="n">
+      <c r="T9" s="2" t="n">
         <v>49193570.4110602</v>
       </c>
-      <c r="U9" s="3" t="n">
+      <c r="U9" s="2" t="n">
         <v>8862930.20530872</v>
       </c>
-      <c r="V9" s="3" t="n">
+      <c r="V9" s="2" t="n">
         <v>3295539689.03896</v>
       </c>
-      <c r="W9" s="3" t="n">
+      <c r="W9" s="2" t="n">
         <v>2938835067.03591</v>
       </c>
       <c r="X9" s="1" t="n">
@@ -1226,34 +1355,34 @@
       <c r="M10" t="s">
         <v>35</v>
       </c>
-      <c r="N10" s="3" t="n">
+      <c r="N10" s="2" t="n">
         <v>736206926.346017</v>
       </c>
-      <c r="O10" s="3" t="n">
+      <c r="O10" s="2" t="n">
         <v>7580889060.33306</v>
       </c>
-      <c r="P10" s="3" t="n">
+      <c r="P10" s="2" t="n">
         <v>688448359.839625</v>
       </c>
-      <c r="Q10" s="3" t="n">
+      <c r="Q10" s="2" t="n">
         <v>2169509001.49847</v>
       </c>
-      <c r="R10" s="3" t="n">
+      <c r="R10" s="2" t="n">
         <v>1244104869.72637</v>
       </c>
-      <c r="S10" s="3" t="n">
+      <c r="S10" s="2" t="n">
         <v>138698784.19914</v>
       </c>
-      <c r="T10" s="3" t="n">
+      <c r="T10" s="2" t="n">
         <v>115234076.471852</v>
       </c>
-      <c r="U10" s="3" t="n">
+      <c r="U10" s="2" t="n">
         <v>59170528.9137255</v>
       </c>
-      <c r="V10" s="3" t="n">
+      <c r="V10" s="2" t="n">
         <v>16734769115.5176</v>
       </c>
-      <c r="W10" s="3" t="n">
+      <c r="W10" s="2" t="n">
         <v>17003032641.2855</v>
       </c>
       <c r="X10" s="1" t="n">
@@ -1335,26 +1464,26 @@
       <c r="M11" t="s">
         <v>36</v>
       </c>
-      <c r="N11" s="3" t="n">
+      <c r="N11" s="2" t="n">
         <v>1349751.82511971</v>
       </c>
-      <c r="O11" s="3" t="n">
+      <c r="O11" s="2" t="n">
         <v>50781391.1181049</v>
       </c>
-      <c r="P11" s="3" t="n">
+      <c r="P11" s="2" t="n">
         <v>6691354.789521</v>
       </c>
-      <c r="Q11" s="3" t="n">
+      <c r="Q11" s="2" t="n">
         <v>8615592.89304254</v>
       </c>
-      <c r="R11" s="3"/>
-      <c r="S11" s="3" t="n">
+      <c r="R11" s="2"/>
+      <c r="S11" s="2" t="n">
         <v>38967123.8108546</v>
       </c>
-      <c r="T11" s="3"/>
-      <c r="U11" s="3"/>
-      <c r="V11" s="3"/>
-      <c r="W11" s="3"/>
+      <c r="T11" s="2"/>
+      <c r="U11" s="2"/>
+      <c r="V11" s="2"/>
+      <c r="W11" s="2"/>
       <c r="X11" s="1"/>
       <c r="Y11" s="1"/>
       <c r="Z11" s="1"/>
@@ -1405,16 +1534,16 @@
       <c r="A12" t="str">
         <f>M12</f>
       </c>
-      <c r="N12" s="3"/>
-      <c r="O12" s="3"/>
-      <c r="P12" s="3"/>
-      <c r="Q12" s="3"/>
-      <c r="R12" s="3"/>
-      <c r="S12" s="3"/>
-      <c r="T12" s="3"/>
-      <c r="U12" s="3"/>
-      <c r="V12" s="3"/>
-      <c r="W12" s="3"/>
+      <c r="N12" s="2"/>
+      <c r="O12" s="2"/>
+      <c r="P12" s="2"/>
+      <c r="Q12" s="2"/>
+      <c r="R12" s="2"/>
+      <c r="S12" s="2"/>
+      <c r="T12" s="2"/>
+      <c r="U12" s="2"/>
+      <c r="V12" s="2"/>
+      <c r="W12" s="2"/>
       <c r="X12" s="1"/>
       <c r="Y12" s="1"/>
       <c r="Z12" s="1"/>
@@ -1445,4 +1574,1084 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false">
+      <pane ySplit="1" xSplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <selection pane="bottomRight"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="str">
+        <f>M1</f>
+      </c>
+      <c r="M1" t="s">
+        <v>0</v>
+      </c>
+      <c r="N1" t="s">
+        <v>46</v>
+      </c>
+      <c r="O1" t="s">
+        <v>47</v>
+      </c>
+      <c r="P1" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>49</v>
+      </c>
+      <c r="R1" t="s">
+        <v>50</v>
+      </c>
+      <c r="S1" t="s">
+        <v>51</v>
+      </c>
+      <c r="T1" t="s">
+        <v>52</v>
+      </c>
+      <c r="U1" t="s">
+        <v>53</v>
+      </c>
+      <c r="V1" t="s">
+        <v>54</v>
+      </c>
+      <c r="W1" t="s">
+        <v>55</v>
+      </c>
+      <c r="X1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="str">
+        <f>M2</f>
+      </c>
+      <c r="M2" t="s">
+        <v>34</v>
+      </c>
+      <c r="N2" s="3"/>
+      <c r="O2" s="3" t="n">
+        <v>360225720</v>
+      </c>
+      <c r="P2" s="3" t="n">
+        <v>79592000</v>
+      </c>
+      <c r="Q2" s="3"/>
+      <c r="R2" s="3"/>
+      <c r="S2" s="3"/>
+      <c r="T2" s="3" t="n">
+        <v>697042000</v>
+      </c>
+      <c r="U2" s="3" t="n">
+        <v>109736000</v>
+      </c>
+      <c r="V2" s="3" t="n">
+        <v>1347099186</v>
+      </c>
+      <c r="W2" s="3"/>
+      <c r="X2" s="3" t="n">
+        <v>835000</v>
+      </c>
+      <c r="Y2" s="3"/>
+      <c r="Z2" s="3"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="str">
+        <f>M3</f>
+      </c>
+      <c r="M3" t="s">
+        <v>35</v>
+      </c>
+      <c r="N3" s="3"/>
+      <c r="O3" s="3" t="n">
+        <v>1188006112.99</v>
+      </c>
+      <c r="P3" s="3" t="n">
+        <v>500812408</v>
+      </c>
+      <c r="Q3" s="3" t="n">
+        <v>166011300</v>
+      </c>
+      <c r="R3" s="3"/>
+      <c r="S3" s="3"/>
+      <c r="T3" s="3" t="n">
+        <v>2633573800</v>
+      </c>
+      <c r="U3" s="3"/>
+      <c r="V3" s="3" t="n">
+        <v>5500854151.59</v>
+      </c>
+      <c r="W3" s="3"/>
+      <c r="X3" s="3"/>
+      <c r="Y3" s="3"/>
+      <c r="Z3" s="3"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="str">
+        <f>M4</f>
+      </c>
+      <c r="M4" t="s">
+        <v>36</v>
+      </c>
+      <c r="N4" s="3" t="n">
+        <v>32742644.38</v>
+      </c>
+      <c r="O4" s="3"/>
+      <c r="P4" s="3"/>
+      <c r="Q4" s="3"/>
+      <c r="R4" s="3" t="n">
+        <v>34746002.94</v>
+      </c>
+      <c r="S4" s="3" t="n">
+        <v>13327019.7</v>
+      </c>
+      <c r="T4" s="3"/>
+      <c r="U4" s="3"/>
+      <c r="V4" s="3"/>
+      <c r="W4" s="3" t="n">
+        <v>3271462</v>
+      </c>
+      <c r="X4" s="3" t="n">
+        <v>3915576</v>
+      </c>
+      <c r="Y4" s="3"/>
+      <c r="Z4" s="3"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="str">
+        <f>M5</f>
+      </c>
+      <c r="M5" t="s">
+        <v>37</v>
+      </c>
+      <c r="N5" s="3" t="str">
+        <f>Sum(N2:N4)</f>
+      </c>
+      <c r="O5" s="3" t="str">
+        <f>Sum(O2:O4)</f>
+      </c>
+      <c r="P5" s="3" t="str">
+        <f>Sum(P2:P4)</f>
+      </c>
+      <c r="Q5" s="3" t="str">
+        <f>Sum(Q2:Q4)</f>
+      </c>
+      <c r="R5" s="3" t="str">
+        <f>Sum(R2:R4)</f>
+      </c>
+      <c r="S5" s="3" t="str">
+        <f>Sum(S2:S4)</f>
+      </c>
+      <c r="T5" s="3" t="str">
+        <f>Sum(T2:T4)</f>
+      </c>
+      <c r="U5" s="3" t="str">
+        <f>Sum(U2:U4)</f>
+      </c>
+      <c r="V5" s="3" t="str">
+        <f>Sum(V2:V4)</f>
+      </c>
+      <c r="W5" s="3" t="str">
+        <f>Sum(W2:W4)</f>
+      </c>
+      <c r="X5" s="3" t="str">
+        <f>Sum(X2:X4)</f>
+      </c>
+      <c r="Y5" s="3"/>
+      <c r="Z5" s="3"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="str">
+        <f>M8</f>
+      </c>
+      <c r="M8" t="s">
+        <v>0</v>
+      </c>
+      <c r="N8" t="s">
+        <v>46</v>
+      </c>
+      <c r="O8" t="s">
+        <v>47</v>
+      </c>
+      <c r="P8" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>49</v>
+      </c>
+      <c r="R8" t="s">
+        <v>50</v>
+      </c>
+      <c r="S8" t="s">
+        <v>51</v>
+      </c>
+      <c r="T8" t="s">
+        <v>52</v>
+      </c>
+      <c r="U8" t="s">
+        <v>53</v>
+      </c>
+      <c r="V8" t="s">
+        <v>54</v>
+      </c>
+      <c r="W8" t="s">
+        <v>55</v>
+      </c>
+      <c r="X8" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="str">
+        <f>M9</f>
+      </c>
+      <c r="M9" t="s">
+        <v>34</v>
+      </c>
+      <c r="N9" s="3"/>
+      <c r="O9" s="3" t="n">
+        <v>473657908.724895</v>
+      </c>
+      <c r="P9" s="3" t="n">
+        <v>112604435.015722</v>
+      </c>
+      <c r="Q9" s="3"/>
+      <c r="R9" s="3"/>
+      <c r="S9" s="3"/>
+      <c r="T9" s="3" t="n">
+        <v>796649115.680891</v>
+      </c>
+      <c r="U9" s="3" t="n">
+        <v>110400871.394885</v>
+      </c>
+      <c r="V9" s="3" t="n">
+        <v>1872383328.35855</v>
+      </c>
+      <c r="W9" s="3"/>
+      <c r="X9" s="3" t="n">
+        <v>1448487.31338981</v>
+      </c>
+      <c r="Y9" s="3"/>
+      <c r="Z9" s="3"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="str">
+        <f>M10</f>
+      </c>
+      <c r="M10" t="s">
+        <v>35</v>
+      </c>
+      <c r="N10" s="3"/>
+      <c r="O10" s="3" t="n">
+        <v>1545676257.8872</v>
+      </c>
+      <c r="P10" s="3" t="n">
+        <v>709325827.261076</v>
+      </c>
+      <c r="Q10" s="3" t="n">
+        <v>160954635.413183</v>
+      </c>
+      <c r="R10" s="3"/>
+      <c r="S10" s="3"/>
+      <c r="T10" s="3" t="n">
+        <v>2859552638.94602</v>
+      </c>
+      <c r="U10" s="3"/>
+      <c r="V10" s="3" t="n">
+        <v>7456752247.82078</v>
+      </c>
+      <c r="W10" s="3"/>
+      <c r="X10" s="3"/>
+      <c r="Y10" s="3"/>
+      <c r="Z10" s="3"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="str">
+        <f>M11</f>
+      </c>
+      <c r="M11" t="s">
+        <v>36</v>
+      </c>
+      <c r="N11" s="3" t="n">
+        <v>39951672.8781656</v>
+      </c>
+      <c r="O11" s="3"/>
+      <c r="P11" s="3"/>
+      <c r="Q11" s="3"/>
+      <c r="R11" s="3" t="n">
+        <v>42568043.220405</v>
+      </c>
+      <c r="S11" s="3" t="n">
+        <v>15307522.4944336</v>
+      </c>
+      <c r="T11" s="3"/>
+      <c r="U11" s="3"/>
+      <c r="V11" s="3"/>
+      <c r="W11" s="3" t="n">
+        <v>3968932.65650609</v>
+      </c>
+      <c r="X11" s="3" t="n">
+        <v>4609043.18713236</v>
+      </c>
+      <c r="Y11" s="3"/>
+      <c r="Z11" s="3"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="str">
+        <f>M12</f>
+      </c>
+      <c r="N12" s="3"/>
+      <c r="O12" s="3"/>
+      <c r="P12" s="3"/>
+      <c r="Q12" s="3"/>
+      <c r="R12" s="3"/>
+      <c r="S12" s="3"/>
+      <c r="T12" s="3"/>
+      <c r="U12" s="3"/>
+      <c r="V12" s="3"/>
+      <c r="W12" s="3"/>
+      <c r="X12" s="3"/>
+      <c r="Y12" s="3"/>
+      <c r="Z12" s="3"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false">
+      <pane ySplit="1" xSplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <selection pane="bottomRight"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="str">
+        <f>M1</f>
+      </c>
+      <c r="M1" t="s">
+        <v>0</v>
+      </c>
+      <c r="N1" t="s">
+        <v>57</v>
+      </c>
+      <c r="O1" t="s">
+        <v>58</v>
+      </c>
+      <c r="P1" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>60</v>
+      </c>
+      <c r="R1" t="s">
+        <v>61</v>
+      </c>
+      <c r="S1" t="s">
+        <v>62</v>
+      </c>
+      <c r="T1" t="s">
+        <v>63</v>
+      </c>
+      <c r="U1" t="s">
+        <v>64</v>
+      </c>
+      <c r="V1" t="s">
+        <v>65</v>
+      </c>
+      <c r="W1" t="s">
+        <v>66</v>
+      </c>
+      <c r="X1" t="s">
+        <v>67</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>68</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>69</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>70</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>71</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>77</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>78</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>79</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>80</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>81</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>82</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>84</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>85</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>86</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="str">
+        <f>M2</f>
+      </c>
+      <c r="M2" t="s">
+        <v>34</v>
+      </c>
+      <c r="N2" s="5" t="n">
+        <v>15597000</v>
+      </c>
+      <c r="O2" s="5"/>
+      <c r="P2" s="5"/>
+      <c r="Q2" s="5"/>
+      <c r="R2" s="5"/>
+      <c r="S2" s="5"/>
+      <c r="T2" s="5"/>
+      <c r="U2" s="5"/>
+      <c r="V2" s="5"/>
+      <c r="W2" s="5"/>
+      <c r="X2" s="5"/>
+      <c r="Y2" s="5"/>
+      <c r="Z2" s="5"/>
+      <c r="AA2" s="5"/>
+      <c r="AB2" s="5"/>
+      <c r="AC2" s="5"/>
+      <c r="AD2" s="5"/>
+      <c r="AE2" s="5"/>
+      <c r="AF2" s="5"/>
+      <c r="AG2" s="5"/>
+      <c r="AH2" s="5"/>
+      <c r="AI2" s="5" t="n">
+        <v>621000</v>
+      </c>
+      <c r="AJ2" s="5" t="n">
+        <v>2298082906</v>
+      </c>
+      <c r="AK2" s="5" t="n">
+        <v>247252000</v>
+      </c>
+      <c r="AL2" s="5"/>
+      <c r="AM2" s="5"/>
+      <c r="AN2" s="5"/>
+      <c r="AO2" s="5"/>
+      <c r="AP2" s="5"/>
+      <c r="AQ2" s="5"/>
+      <c r="AR2" s="5" t="n">
+        <v>32977000</v>
+      </c>
+      <c r="AS2" s="5"/>
+      <c r="AT2" s="5"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="str">
+        <f>M3</f>
+      </c>
+      <c r="M3" t="s">
+        <v>35</v>
+      </c>
+      <c r="N3" s="5"/>
+      <c r="O3" s="5"/>
+      <c r="P3" s="5" t="n">
+        <v>24972500</v>
+      </c>
+      <c r="Q3" s="5" t="n">
+        <v>32309800</v>
+      </c>
+      <c r="R3" s="5" t="n">
+        <v>89040738</v>
+      </c>
+      <c r="S3" s="5" t="n">
+        <v>11912346</v>
+      </c>
+      <c r="T3" s="5" t="n">
+        <v>8510000</v>
+      </c>
+      <c r="U3" s="5" t="n">
+        <v>50000</v>
+      </c>
+      <c r="V3" s="5" t="n">
+        <v>5575000</v>
+      </c>
+      <c r="W3" s="5" t="n">
+        <v>1765727600</v>
+      </c>
+      <c r="X3" s="5"/>
+      <c r="Y3" s="5" t="n">
+        <v>11391000</v>
+      </c>
+      <c r="Z3" s="5" t="n">
+        <v>400000</v>
+      </c>
+      <c r="AA3" s="5" t="n">
+        <v>6975289477.58</v>
+      </c>
+      <c r="AB3" s="5" t="n">
+        <v>3086400</v>
+      </c>
+      <c r="AC3" s="5" t="n">
+        <v>286590876</v>
+      </c>
+      <c r="AD3" s="5" t="n">
+        <v>111649000</v>
+      </c>
+      <c r="AE3" s="5" t="n">
+        <v>45877200</v>
+      </c>
+      <c r="AF3" s="5" t="n">
+        <v>335015835</v>
+      </c>
+      <c r="AG3" s="5" t="n">
+        <v>8550000</v>
+      </c>
+      <c r="AH3" s="5" t="n">
+        <v>7214000</v>
+      </c>
+      <c r="AI3" s="5"/>
+      <c r="AJ3" s="5"/>
+      <c r="AK3" s="5"/>
+      <c r="AL3" s="5" t="n">
+        <v>8656000</v>
+      </c>
+      <c r="AM3" s="5" t="n">
+        <v>1150000</v>
+      </c>
+      <c r="AN3" s="5" t="n">
+        <v>3810600</v>
+      </c>
+      <c r="AO3" s="5" t="n">
+        <v>251851400</v>
+      </c>
+      <c r="AP3" s="5" t="n">
+        <v>368000</v>
+      </c>
+      <c r="AQ3" s="5" t="n">
+        <v>260000</v>
+      </c>
+      <c r="AR3" s="5"/>
+      <c r="AS3" s="5"/>
+      <c r="AT3" s="5"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="str">
+        <f>M4</f>
+      </c>
+      <c r="M4" t="s">
+        <v>36</v>
+      </c>
+      <c r="N4" s="5"/>
+      <c r="O4" s="5" t="n">
+        <v>40153598</v>
+      </c>
+      <c r="P4" s="5"/>
+      <c r="Q4" s="5"/>
+      <c r="R4" s="5"/>
+      <c r="S4" s="5"/>
+      <c r="T4" s="5"/>
+      <c r="U4" s="5"/>
+      <c r="V4" s="5"/>
+      <c r="W4" s="5"/>
+      <c r="X4" s="5" t="n">
+        <v>47849107.02</v>
+      </c>
+      <c r="Y4" s="5"/>
+      <c r="Z4" s="5"/>
+      <c r="AA4" s="5"/>
+      <c r="AB4" s="5"/>
+      <c r="AC4" s="5"/>
+      <c r="AD4" s="5"/>
+      <c r="AE4" s="5"/>
+      <c r="AF4" s="5"/>
+      <c r="AG4" s="5"/>
+      <c r="AH4" s="5"/>
+      <c r="AI4" s="5"/>
+      <c r="AJ4" s="5"/>
+      <c r="AK4" s="5"/>
+      <c r="AL4" s="5"/>
+      <c r="AM4" s="5"/>
+      <c r="AN4" s="5"/>
+      <c r="AO4" s="5"/>
+      <c r="AP4" s="5"/>
+      <c r="AQ4" s="5"/>
+      <c r="AR4" s="5"/>
+      <c r="AS4" s="5"/>
+      <c r="AT4" s="5"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="str">
+        <f>M5</f>
+      </c>
+      <c r="M5" t="s">
+        <v>37</v>
+      </c>
+      <c r="N5" s="5" t="str">
+        <f>Sum(N2:N4)</f>
+      </c>
+      <c r="O5" s="5" t="str">
+        <f>Sum(O2:O4)</f>
+      </c>
+      <c r="P5" s="5" t="str">
+        <f>Sum(P2:P4)</f>
+      </c>
+      <c r="Q5" s="5" t="str">
+        <f>Sum(Q2:Q4)</f>
+      </c>
+      <c r="R5" s="5" t="str">
+        <f>Sum(R2:R4)</f>
+      </c>
+      <c r="S5" s="5" t="str">
+        <f>Sum(S2:S4)</f>
+      </c>
+      <c r="T5" s="5" t="str">
+        <f>Sum(T2:T4)</f>
+      </c>
+      <c r="U5" s="5" t="str">
+        <f>Sum(U2:U4)</f>
+      </c>
+      <c r="V5" s="5" t="str">
+        <f>Sum(V2:V4)</f>
+      </c>
+      <c r="W5" s="5" t="str">
+        <f>Sum(W2:W4)</f>
+      </c>
+      <c r="X5" s="5" t="str">
+        <f>Sum(X2:X4)</f>
+      </c>
+      <c r="Y5" s="5" t="str">
+        <f>Sum(Y2:Y4)</f>
+      </c>
+      <c r="Z5" s="5" t="str">
+        <f>Sum(Z2:Z4)</f>
+      </c>
+      <c r="AA5" s="5" t="str">
+        <f>Sum(AA2:AA4)</f>
+      </c>
+      <c r="AB5" s="5" t="str">
+        <f>Sum(AB2:AB4)</f>
+      </c>
+      <c r="AC5" s="5" t="str">
+        <f>Sum(AC2:AC4)</f>
+      </c>
+      <c r="AD5" s="5" t="str">
+        <f>Sum(AD2:AD4)</f>
+      </c>
+      <c r="AE5" s="5" t="str">
+        <f>Sum(AE2:AE4)</f>
+      </c>
+      <c r="AF5" s="5" t="str">
+        <f>Sum(AF2:AF4)</f>
+      </c>
+      <c r="AG5" s="5" t="str">
+        <f>Sum(AG2:AG4)</f>
+      </c>
+      <c r="AH5" s="5" t="str">
+        <f>Sum(AH2:AH4)</f>
+      </c>
+      <c r="AI5" s="5" t="str">
+        <f>Sum(AI2:AI4)</f>
+      </c>
+      <c r="AJ5" s="5" t="str">
+        <f>Sum(AJ2:AJ4)</f>
+      </c>
+      <c r="AK5" s="5" t="str">
+        <f>Sum(AK2:AK4)</f>
+      </c>
+      <c r="AL5" s="5" t="str">
+        <f>Sum(AL2:AL4)</f>
+      </c>
+      <c r="AM5" s="5" t="str">
+        <f>Sum(AM2:AM4)</f>
+      </c>
+      <c r="AN5" s="5" t="str">
+        <f>Sum(AN2:AN4)</f>
+      </c>
+      <c r="AO5" s="5" t="str">
+        <f>Sum(AO2:AO4)</f>
+      </c>
+      <c r="AP5" s="5" t="str">
+        <f>Sum(AP2:AP4)</f>
+      </c>
+      <c r="AQ5" s="5" t="str">
+        <f>Sum(AQ2:AQ4)</f>
+      </c>
+      <c r="AR5" s="5" t="str">
+        <f>Sum(AR2:AR4)</f>
+      </c>
+      <c r="AS5" s="5"/>
+      <c r="AT5" s="5"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="str">
+        <f>M8</f>
+      </c>
+      <c r="M8" t="s">
+        <v>0</v>
+      </c>
+      <c r="N8" t="s">
+        <v>57</v>
+      </c>
+      <c r="O8" t="s">
+        <v>58</v>
+      </c>
+      <c r="P8" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>60</v>
+      </c>
+      <c r="R8" t="s">
+        <v>61</v>
+      </c>
+      <c r="S8" t="s">
+        <v>62</v>
+      </c>
+      <c r="T8" t="s">
+        <v>63</v>
+      </c>
+      <c r="U8" t="s">
+        <v>64</v>
+      </c>
+      <c r="V8" t="s">
+        <v>65</v>
+      </c>
+      <c r="W8" t="s">
+        <v>66</v>
+      </c>
+      <c r="X8" t="s">
+        <v>67</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>68</v>
+      </c>
+      <c r="Z8" t="s">
+        <v>69</v>
+      </c>
+      <c r="AA8" t="s">
+        <v>70</v>
+      </c>
+      <c r="AB8" t="s">
+        <v>71</v>
+      </c>
+      <c r="AC8" t="s">
+        <v>72</v>
+      </c>
+      <c r="AD8" t="s">
+        <v>73</v>
+      </c>
+      <c r="AE8" t="s">
+        <v>74</v>
+      </c>
+      <c r="AF8" t="s">
+        <v>75</v>
+      </c>
+      <c r="AG8" t="s">
+        <v>76</v>
+      </c>
+      <c r="AH8" t="s">
+        <v>77</v>
+      </c>
+      <c r="AI8" t="s">
+        <v>78</v>
+      </c>
+      <c r="AJ8" t="s">
+        <v>79</v>
+      </c>
+      <c r="AK8" t="s">
+        <v>80</v>
+      </c>
+      <c r="AL8" t="s">
+        <v>81</v>
+      </c>
+      <c r="AM8" t="s">
+        <v>82</v>
+      </c>
+      <c r="AN8" t="s">
+        <v>83</v>
+      </c>
+      <c r="AO8" t="s">
+        <v>84</v>
+      </c>
+      <c r="AP8" t="s">
+        <v>85</v>
+      </c>
+      <c r="AQ8" t="s">
+        <v>86</v>
+      </c>
+      <c r="AR8" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="str">
+        <f>M9</f>
+      </c>
+      <c r="M9" t="s">
+        <v>34</v>
+      </c>
+      <c r="N9" s="5" t="n">
+        <v>19696816.4508163</v>
+      </c>
+      <c r="O9" s="5"/>
+      <c r="P9" s="5"/>
+      <c r="Q9" s="5"/>
+      <c r="R9" s="5"/>
+      <c r="S9" s="5"/>
+      <c r="T9" s="5"/>
+      <c r="U9" s="5"/>
+      <c r="V9" s="5"/>
+      <c r="W9" s="5"/>
+      <c r="X9" s="5"/>
+      <c r="Y9" s="5"/>
+      <c r="Z9" s="5"/>
+      <c r="AA9" s="5"/>
+      <c r="AB9" s="5"/>
+      <c r="AC9" s="5"/>
+      <c r="AD9" s="5"/>
+      <c r="AE9" s="5"/>
+      <c r="AF9" s="5"/>
+      <c r="AG9" s="5"/>
+      <c r="AH9" s="5"/>
+      <c r="AI9" s="5" t="n">
+        <v>1051720.50519876</v>
+      </c>
+      <c r="AJ9" s="5" t="n">
+        <v>2967543059.89074</v>
+      </c>
+      <c r="AK9" s="5" t="n">
+        <v>343877693.039226</v>
+      </c>
+      <c r="AL9" s="5"/>
+      <c r="AM9" s="5"/>
+      <c r="AN9" s="5"/>
+      <c r="AO9" s="5"/>
+      <c r="AP9" s="5"/>
+      <c r="AQ9" s="5"/>
+      <c r="AR9" s="5" t="n">
+        <v>34974856.6023505</v>
+      </c>
+      <c r="AS9" s="5"/>
+      <c r="AT9" s="5"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="str">
+        <f>M10</f>
+      </c>
+      <c r="M10" t="s">
+        <v>35</v>
+      </c>
+      <c r="N10" s="5"/>
+      <c r="O10" s="5"/>
+      <c r="P10" s="5" t="n">
+        <v>28653487.7473175</v>
+      </c>
+      <c r="Q10" s="5" t="n">
+        <v>45180355.2174778</v>
+      </c>
+      <c r="R10" s="5" t="n">
+        <v>132994086.217949</v>
+      </c>
+      <c r="S10" s="5" t="n">
+        <v>19888888.2494606</v>
+      </c>
+      <c r="T10" s="5" t="n">
+        <v>15335433.1169026</v>
+      </c>
+      <c r="U10" s="5" t="n">
+        <v>91465.7176739912</v>
+      </c>
+      <c r="V10" s="5" t="n">
+        <v>7866295.29551097</v>
+      </c>
+      <c r="W10" s="5" t="n">
+        <v>2248944449.64647</v>
+      </c>
+      <c r="X10" s="5"/>
+      <c r="Y10" s="5" t="n">
+        <v>20423300.9531076</v>
+      </c>
+      <c r="Z10" s="5" t="n">
+        <v>701266.879993454</v>
+      </c>
+      <c r="AA10" s="5" t="n">
+        <v>8860059489.06905</v>
+      </c>
+      <c r="AB10" s="5" t="n">
+        <v>4068554.43126534</v>
+      </c>
+      <c r="AC10" s="5" t="n">
+        <v>347706250.378986</v>
+      </c>
+      <c r="AD10" s="5" t="n">
+        <v>134137294.331762</v>
+      </c>
+      <c r="AE10" s="5" t="n">
+        <v>59083814.9444405</v>
+      </c>
+      <c r="AF10" s="5" t="n">
+        <v>447423482.900491</v>
+      </c>
+      <c r="AG10" s="5" t="n">
+        <v>10979762.7835024</v>
+      </c>
+      <c r="AH10" s="5" t="n">
+        <v>10410752.5748099</v>
+      </c>
+      <c r="AI10" s="5"/>
+      <c r="AJ10" s="5"/>
+      <c r="AK10" s="5"/>
+      <c r="AL10" s="5" t="n">
+        <v>13588876.3748469</v>
+      </c>
+      <c r="AM10" s="5" t="n">
+        <v>1614682.98925847</v>
+      </c>
+      <c r="AN10" s="5" t="n">
+        <v>6504594.37895871</v>
+      </c>
+      <c r="AO10" s="5" t="n">
+        <v>315570396.252142</v>
+      </c>
+      <c r="AP10" s="5" t="n">
+        <v>614537.063952721</v>
+      </c>
+      <c r="AQ10" s="5" t="n">
+        <v>420089.812939984</v>
+      </c>
+      <c r="AR10" s="5"/>
+      <c r="AS10" s="5"/>
+      <c r="AT10" s="5"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="str">
+        <f>M11</f>
+      </c>
+      <c r="M11" t="s">
+        <v>36</v>
+      </c>
+      <c r="N11" s="5"/>
+      <c r="O11" s="5" t="n">
+        <v>49129123.3506852</v>
+      </c>
+      <c r="P11" s="5"/>
+      <c r="Q11" s="5"/>
+      <c r="R11" s="5"/>
+      <c r="S11" s="5"/>
+      <c r="T11" s="5"/>
+      <c r="U11" s="5"/>
+      <c r="V11" s="5"/>
+      <c r="W11" s="5"/>
+      <c r="X11" s="5" t="n">
+        <v>57276091.0859575</v>
+      </c>
+      <c r="Y11" s="5"/>
+      <c r="Z11" s="5"/>
+      <c r="AA11" s="5"/>
+      <c r="AB11" s="5"/>
+      <c r="AC11" s="5"/>
+      <c r="AD11" s="5"/>
+      <c r="AE11" s="5"/>
+      <c r="AF11" s="5"/>
+      <c r="AG11" s="5"/>
+      <c r="AH11" s="5"/>
+      <c r="AI11" s="5"/>
+      <c r="AJ11" s="5"/>
+      <c r="AK11" s="5"/>
+      <c r="AL11" s="5"/>
+      <c r="AM11" s="5"/>
+      <c r="AN11" s="5"/>
+      <c r="AO11" s="5"/>
+      <c r="AP11" s="5"/>
+      <c r="AQ11" s="5"/>
+      <c r="AR11" s="5"/>
+      <c r="AS11" s="5"/>
+      <c r="AT11" s="5"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="str">
+        <f>M12</f>
+      </c>
+      <c r="N12" s="5"/>
+      <c r="O12" s="5"/>
+      <c r="P12" s="5"/>
+      <c r="Q12" s="5"/>
+      <c r="R12" s="5"/>
+      <c r="S12" s="5"/>
+      <c r="T12" s="5"/>
+      <c r="U12" s="5"/>
+      <c r="V12" s="5"/>
+      <c r="W12" s="5"/>
+      <c r="X12" s="5"/>
+      <c r="Y12" s="5"/>
+      <c r="Z12" s="5"/>
+      <c r="AA12" s="5"/>
+      <c r="AB12" s="5"/>
+      <c r="AC12" s="5"/>
+      <c r="AD12" s="5"/>
+      <c r="AE12" s="5"/>
+      <c r="AF12" s="5"/>
+      <c r="AG12" s="5"/>
+      <c r="AH12" s="5"/>
+      <c r="AI12" s="5"/>
+      <c r="AJ12" s="5"/>
+      <c r="AK12" s="5"/>
+      <c r="AL12" s="5"/>
+      <c r="AM12" s="5"/>
+      <c r="AN12" s="5"/>
+      <c r="AO12" s="5"/>
+      <c r="AP12" s="5"/>
+      <c r="AQ12" s="5"/>
+      <c r="AR12" s="5"/>
+      <c r="AS12" s="5"/>
+      <c r="AT12" s="5"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+</worksheet>
 </file>